--- a/public/assets/templates/category_template.xlsx
+++ b/public/assets/templates/category_template.xlsx
@@ -1,45 +1,162 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Projects\ElectricApps\public\assets\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA9D53EE-0A7D-4323-AAD8-66AB04F5F2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{44BD44BC-8912-4AAB-91C0-65C82116C4AE}"/>
+  </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>CategoryCode</t>
+  </si>
+  <si>
+    <t>CategoryName</t>
+  </si>
+  <si>
+    <t>DefaultGst</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>CAT001</t>
+  </si>
+  <si>
+    <t>Wires &amp; Cables</t>
+  </si>
+  <si>
+    <t>Electrical wiring and cables</t>
+  </si>
+  <si>
+    <t>CAT002</t>
+  </si>
+  <si>
+    <t>Switches &amp; Sockets</t>
+  </si>
+  <si>
+    <t>Modular switches and sockets</t>
+  </si>
+  <si>
+    <t>CAT003</t>
+  </si>
+  <si>
+    <t>Lighting</t>
+  </si>
+  <si>
+    <t>Indoor and outdoor lighting</t>
+  </si>
+  <si>
+    <t>CAT004</t>
+  </si>
+  <si>
+    <t>Fans</t>
+  </si>
+  <si>
+    <t>Ceiling, wall and exhaust fans</t>
+  </si>
+  <si>
+    <t>CAT005</t>
+  </si>
+  <si>
+    <t>MCB &amp; Distribution</t>
+  </si>
+  <si>
+    <t>Circuit breakers and DB boxes</t>
+  </si>
+  <si>
+    <t>CAT006</t>
+  </si>
+  <si>
+    <t>Conduits &amp; Fittings</t>
+  </si>
+  <si>
+    <t>PVC conduits and accessories</t>
+  </si>
+  <si>
+    <t>CAT007</t>
+  </si>
+  <si>
+    <t>Electrical Accessories</t>
+  </si>
+  <si>
+    <t>Plugs, holders, connectors</t>
+  </si>
+  <si>
+    <t>CAT008</t>
+  </si>
+  <si>
+    <t>Industrial Electrical</t>
+  </si>
+  <si>
+    <t>Industrial electrical components</t>
+  </si>
+  <si>
+    <t>CAT009</t>
+  </si>
+  <si>
+    <t>Inverters &amp; Batteries</t>
+  </si>
+  <si>
+    <t>Power backup products</t>
+  </si>
+  <si>
+    <t>CAT010</t>
+  </si>
+  <si>
+    <t>Smart Electrical</t>
+  </si>
+  <si>
+    <t>Smart home electrical devices</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -64,14 +181,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -86,44 +212,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -151,14 +277,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -186,6 +329,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -197,180 +357,136 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
+            <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
     <a:lnDef>
       <a:spPr/>
       <a:bodyPr/>
@@ -392,81 +508,184 @@
     </a:lnDef>
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78393E64-350E-4A05-B271-BED76389676F}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>CategoryCode</v>
-      </c>
-      <c r="B1" t="str">
-        <v>CategoryName</v>
-      </c>
-      <c r="C1" t="str">
-        <v>DefaultGst</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Description</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>CAT001</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Electronics</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2">
         <v>18</v>
       </c>
-      <c r="D2" t="str">
-        <v>Electronic items and gadgets</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>CAT002</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Furniture</v>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
       <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
         <v>12</v>
       </c>
-      <c r="D3" t="str">
-        <v>Home and office furniture</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>CAT003</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Men and Women clothing</v>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>